--- a/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/final_freight_values.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/final_freight_values.xlsx
@@ -750,10 +750,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.066063364042202</v>
+        <v>5.066063364042201</v>
       </c>
       <c r="B29" t="n">
-        <v>5.066063364042202</v>
+        <v>5.066063364042201</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
